--- a/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B55D762-FEC9-4223-9E35-F477C48A3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{875ADD6F-AB86-4D16-997F-250491B97CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC2FAA16-5CE5-4110-AB41-FC7C2EE9E59D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B51E456-DE98-4083-956C-4B5B80127448}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,10 @@
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,83%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +107,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -116,7 +119,10 @@
     <t>6,13%</t>
   </si>
   <si>
-    <t>16,17%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,10 +134,10 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>88,76%</t>
@@ -146,19 +152,19 @@
     <t>88,22%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>11,24%</t>
@@ -173,10 +179,10 @@
     <t>11,78%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -185,55 +191,55 @@
     <t>91,96%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -242,19 +248,19 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>91,84%</t>
@@ -263,31 +269,31 @@
     <t>87,77%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>12,23%</t>
@@ -299,835 +305,841 @@
     <t>91,08%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,57%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>21,87%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>84,15%</t>
@@ -1136,22 +1148,19 @@
     <t>78,67%</t>
   </si>
   <si>
-    <t>88,28%</t>
+    <t>88,17%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>82,24%</t>
@@ -1160,7 +1169,7 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>11,83%</t>
   </si>
   <si>
     <t>21,33%</t>
@@ -1169,175 +1178,166 @@
     <t>23,87%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>23,73%</t>
+    <t>23,85%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD31D12-EA6E-448D-B67A-4755A3628B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BA889C-1965-4CE3-A48F-6B876D1BD22A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1909,13 +1909,13 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1924,13 +1924,13 @@
         <v>1094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1939,13 +1939,13 @@
         <v>2016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1954,13 +1954,13 @@
         <v>3110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1975,13 @@
         <v>26374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1990,13 +1990,13 @@
         <v>24325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -2005,18 +2005,18 @@
         <v>50699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2028,13 +2028,13 @@
         <v>77498</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -2043,34 +2043,34 @@
         <v>111139</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
       </c>
       <c r="N7" s="7">
-        <v>188636</v>
+        <v>188637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -2079,13 +2079,13 @@
         <v>11117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2094,13 +2094,13 @@
         <v>14072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -2109,13 +2109,13 @@
         <v>25189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2130,13 @@
         <v>88615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -2145,33 +2145,33 @@
         <v>125211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2183,13 @@
         <v>134157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -2198,13 +2198,13 @@
         <v>155442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>280</v>
@@ -2213,19 +2213,19 @@
         <v>289598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -2234,13 +2234,13 @@
         <v>11732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -2249,13 +2249,13 @@
         <v>27238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2264,13 +2264,13 @@
         <v>38970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2285,13 @@
         <v>145889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2300,13 +2300,13 @@
         <v>182680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>316</v>
@@ -2315,18 +2315,18 @@
         <v>328568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2338,13 @@
         <v>100659</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2353,13 +2353,13 @@
         <v>119954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
@@ -2368,19 +2368,19 @@
         <v>220613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -2389,13 +2389,13 @@
         <v>3712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2404,13 +2404,13 @@
         <v>15896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2419,13 +2419,13 @@
         <v>19608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2440,13 @@
         <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>140</v>
@@ -2455,13 +2455,13 @@
         <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>242</v>
@@ -2470,18 +2470,18 @@
         <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2493,13 @@
         <v>124972</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -2508,13 +2508,13 @@
         <v>176904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -2523,19 +2523,19 @@
         <v>301876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -2544,13 +2544,13 @@
         <v>12245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2559,13 +2559,13 @@
         <v>31873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -2574,13 +2574,13 @@
         <v>44119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2595,13 @@
         <v>137217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -2610,13 +2610,13 @@
         <v>208777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>356</v>
@@ -2625,13 +2625,13 @@
         <v>345995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2648,13 @@
         <v>462565</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>578</v>
@@ -2663,13 +2663,13 @@
         <v>585747</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1058</v>
@@ -2678,19 +2678,19 @@
         <v>1048312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>43</v>
@@ -2699,13 +2699,13 @@
         <v>39901</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -2714,13 +2714,13 @@
         <v>91095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -2729,13 +2729,13 @@
         <v>130996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2765,13 +2765,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2780,18 +2780,18 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2BC1FC-788D-4608-BF8F-DC6AA0EC5F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89787EAD-AB43-4A95-A1EF-6FE1716AC2DF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,10 +2936,10 @@
         <v>19418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2951,13 +2951,13 @@
         <v>18470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2966,19 +2966,19 @@
         <v>37888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2987,13 +2987,13 @@
         <v>1780</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3002,13 +3002,13 @@
         <v>6724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3017,13 +3017,13 @@
         <v>8504</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>21198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3053,13 +3053,13 @@
         <v>25194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3068,18 +3068,18 @@
         <v>46392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3091,13 +3091,13 @@
         <v>107800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -3106,13 +3106,13 @@
         <v>106775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3121,19 +3121,19 @@
         <v>214575</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -3142,13 +3142,13 @@
         <v>10550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3157,13 +3157,13 @@
         <v>34817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3172,13 +3172,13 @@
         <v>45367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>118350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -3208,13 +3208,13 @@
         <v>141592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>239</v>
@@ -3223,18 +3223,18 @@
         <v>259942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3246,13 @@
         <v>122456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3261,13 +3261,13 @@
         <v>129206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3276,19 +3276,19 @@
         <v>251662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>29</v>
@@ -3297,7 +3297,7 @@
         <v>32422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>167</v>
@@ -3348,13 +3348,13 @@
         <v>154878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>177</v>
@@ -3363,13 +3363,13 @@
         <v>191420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>315</v>
@@ -3378,18 +3378,18 @@
         <v>346298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3443,7 +3443,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -3503,13 +3503,13 @@
         <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>129</v>
@@ -3518,13 +3518,13 @@
         <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>219</v>
@@ -3533,18 +3533,18 @@
         <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3598,7 +3598,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3658,13 +3658,13 @@
         <v>161613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -3673,13 +3673,13 @@
         <v>243750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -3688,13 +3688,13 @@
         <v>405363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>550525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>214</v>
@@ -3753,7 +3753,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>72</v>
@@ -3813,13 +3813,13 @@
         <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>694</v>
@@ -3828,13 +3828,13 @@
         <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1198</v>
@@ -3843,18 +3843,18 @@
         <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0CAADA-ED63-4954-923D-8B66C942041B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1893F-D37F-4D11-9087-D691BE800035}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,13 +4035,13 @@
         <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4050,13 +4050,13 @@
         <v>5354</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4065,13 +4065,13 @@
         <v>7138</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4080,13 +4080,13 @@
         <v>12492</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4101,13 @@
         <v>21688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4116,13 +4116,13 @@
         <v>23439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4131,18 +4131,18 @@
         <v>45127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4154,13 @@
         <v>100469</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -4169,13 +4169,13 @@
         <v>116750</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -4184,19 +4184,19 @@
         <v>217218</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -4205,13 +4205,13 @@
         <v>14577</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4220,13 +4220,13 @@
         <v>33201</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4235,13 +4235,13 @@
         <v>47779</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4256,13 @@
         <v>115046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4271,13 +4271,13 @@
         <v>149951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>259</v>
@@ -4286,18 +4286,18 @@
         <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4309,13 +4309,13 @@
         <v>143877</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -4324,13 +4324,13 @@
         <v>178618</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -4339,19 +4339,19 @@
         <v>322495</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>23</v>
@@ -4360,13 +4360,13 @@
         <v>21064</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -4375,13 +4375,13 @@
         <v>40545</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4390,10 +4390,10 @@
         <v>61609</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>277</v>
@@ -4411,13 +4411,13 @@
         <v>164941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>182</v>
@@ -4426,13 +4426,13 @@
         <v>219163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>357</v>
@@ -4441,18 +4441,18 @@
         <v>384104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4506,7 +4506,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -4566,13 +4566,13 @@
         <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4581,13 +4581,13 @@
         <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -4596,18 +4596,18 @@
         <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,7 +4625,7 @@
         <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>160</v>
@@ -4634,13 +4634,13 @@
         <v>191448</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -4649,19 +4649,19 @@
         <v>349401</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>18</v>
@@ -4670,13 +4670,13 @@
         <v>16666</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4685,13 +4685,13 @@
         <v>51333</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4700,13 +4700,13 @@
         <v>67999</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4721,13 @@
         <v>174618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -4736,13 +4736,13 @@
         <v>242781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>388</v>
@@ -4751,13 +4751,13 @@
         <v>417400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4774,13 @@
         <v>521230</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -4789,13 +4789,13 @@
         <v>609182</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>1072</v>
@@ -4804,19 +4804,19 @@
         <v>1130412</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>77</v>
@@ -4825,13 +4825,13 @@
         <v>70098</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4840,13 +4840,13 @@
         <v>168749</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -4855,13 +4855,13 @@
         <v>238847</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4876,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -4891,13 +4891,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -4906,18 +4906,18 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26281A4A-C4C6-49F7-9F22-BDB0DE30ACD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D9C691-F8D5-4BF6-ADA5-5BC91C7F3563}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5062,13 @@
         <v>27767</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -5077,13 +5077,13 @@
         <v>33608</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -5092,19 +5092,19 @@
         <v>61374</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5113,13 +5113,13 @@
         <v>1897</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5128,13 +5128,13 @@
         <v>11274</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5143,10 +5143,10 @@
         <v>13172</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>348</v>
@@ -5164,13 +5164,13 @@
         <v>29664</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -5179,13 +5179,13 @@
         <v>44882</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>158</v>
@@ -5194,18 +5194,18 @@
         <v>74546</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5220,10 +5220,10 @@
         <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
@@ -5232,13 +5232,13 @@
         <v>108423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -5247,19 +5247,19 @@
         <v>212790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -5268,13 +5268,13 @@
         <v>19283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -5283,13 +5283,13 @@
         <v>37886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>118</v>
@@ -5298,13 +5298,13 @@
         <v>57168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5319,13 @@
         <v>123649</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>332</v>
@@ -5334,13 +5334,13 @@
         <v>146309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>536</v>
@@ -5349,18 +5349,18 @@
         <v>269958</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5372,13 +5372,13 @@
         <v>146288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>339</v>
@@ -5387,13 +5387,13 @@
         <v>183352</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>551</v>
@@ -5402,19 +5402,19 @@
         <v>329639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>42</v>
@@ -5423,13 +5423,13 @@
         <v>27558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -5438,13 +5438,13 @@
         <v>57477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -5453,13 +5453,13 @@
         <v>85036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5474,13 @@
         <v>173846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>446</v>
@@ -5489,13 +5489,13 @@
         <v>240829</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>700</v>
@@ -5504,18 +5504,18 @@
         <v>414675</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5527,13 +5527,13 @@
         <v>131049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5542,13 +5542,13 @@
         <v>244226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5557,19 +5557,19 @@
         <v>375275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -5578,13 +5578,13 @@
         <v>17141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5593,7 +5593,7 @@
         <v>36239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>394</v>
@@ -5629,13 +5629,13 @@
         <v>148190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>287</v>
@@ -5644,13 +5644,13 @@
         <v>280465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -5659,18 +5659,18 @@
         <v>428655</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5724,7 +5724,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -5784,13 +5784,13 @@
         <v>219551</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>520</v>
@@ -5799,13 +5799,13 @@
         <v>307009</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>846</v>
@@ -5814,13 +5814,13 @@
         <v>526560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,10 +5840,10 @@
         <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>1310</v>
@@ -5852,7 +5852,7 @@
         <v>808585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>420</v>
@@ -5879,7 +5879,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>140</v>
@@ -5894,7 +5894,7 @@
         <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -5903,7 +5903,7 @@
         <v>210909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>428</v>
@@ -5939,13 +5939,13 @@
         <v>694900</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1696</v>
@@ -5954,13 +5954,13 @@
         <v>1019494</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2720</v>
@@ -5969,18 +5969,18 @@
         <v>1714394</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{875ADD6F-AB86-4D16-997F-250491B97CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C07B12-42BF-41C2-A8FE-39B19204650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B51E456-DE98-4083-956C-4B5B80127448}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9604A876-C453-43A3-9AA6-2078F54E9E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>77,38%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,16 +86,16 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,57%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1221 +107,1242 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,62%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
     <t>20,69%</t>
   </si>
   <si>
@@ -1329,9 +1350,6 @@
   </si>
   <si>
     <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
   </si>
   <si>
     <t>13,94%</t>
@@ -1749,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BA889C-1965-4CE3-A48F-6B876D1BD22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2472470-6AA0-431A-B7D5-2BE5818D2097}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2055,7 +2073,7 @@
         <v>192</v>
       </c>
       <c r="N7" s="7">
-        <v>188637</v>
+        <v>188636</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2157,7 +2175,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -2812,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89787EAD-AB43-4A95-A1EF-6FE1716AC2DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E704DE5-47B7-40C5-9824-663CBFE1AE79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,13 +3264,13 @@
         <v>122456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3261,13 +3279,13 @@
         <v>129206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3276,13 +3294,13 @@
         <v>251662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3315,13 @@
         <v>32422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -3312,13 +3330,13 @@
         <v>62214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -3327,13 +3345,13 @@
         <v>94636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3419,13 @@
         <v>88430</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3416,13 +3434,13 @@
         <v>100896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -3431,13 +3449,13 @@
         <v>189326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3470,13 @@
         <v>15168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -3467,13 +3485,13 @@
         <v>40123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3482,13 +3500,13 @@
         <v>55291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3574,13 @@
         <v>137998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3571,13 +3589,13 @@
         <v>195178</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -3586,13 +3604,13 @@
         <v>333176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3625,13 @@
         <v>23615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3622,13 +3640,13 @@
         <v>48572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3637,13 +3655,13 @@
         <v>72187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3729,13 @@
         <v>476102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>518</v>
@@ -3726,13 +3744,13 @@
         <v>550525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>950</v>
@@ -3741,13 +3759,13 @@
         <v>1026627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3780,13 @@
         <v>83535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -3777,13 +3795,13 @@
         <v>192450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -3792,13 +3810,13 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1893F-D37F-4D11-9087-D691BE800035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA91C45E-60BB-446C-96AA-D39EF1FCD4F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +4017,13 @@
         <v>16334</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4014,13 +4032,13 @@
         <v>16301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -4029,13 +4047,13 @@
         <v>32635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4068,13 @@
         <v>5354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4065,13 +4083,13 @@
         <v>7138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4080,13 +4098,13 @@
         <v>12492</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4172,13 @@
         <v>100469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -4169,28 +4187,28 @@
         <v>116750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
       </c>
       <c r="N7" s="7">
-        <v>217218</v>
+        <v>217219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4223,13 @@
         <v>14577</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4220,13 +4238,13 @@
         <v>33201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4235,13 +4253,13 @@
         <v>47779</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,7 +4301,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4309,13 +4327,13 @@
         <v>143877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -4324,13 +4342,13 @@
         <v>178618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -4339,13 +4357,13 @@
         <v>322495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4378,13 @@
         <v>21064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -4375,13 +4393,13 @@
         <v>40545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4390,13 +4408,13 @@
         <v>61609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4482,13 @@
         <v>102599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4479,13 +4497,13 @@
         <v>106064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -4494,13 +4512,13 @@
         <v>208663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4533,13 @@
         <v>12436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4530,13 +4548,13 @@
         <v>36532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4545,13 +4563,13 @@
         <v>48968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4637,13 @@
         <v>157952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>160</v>
@@ -4634,13 +4652,13 @@
         <v>191448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -4649,13 +4667,13 @@
         <v>349401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4688,13 @@
         <v>16666</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4685,13 +4703,13 @@
         <v>51333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4700,13 +4718,13 @@
         <v>67999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4792,13 @@
         <v>521230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -4789,13 +4807,13 @@
         <v>609182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>1072</v>
@@ -4804,13 +4822,13 @@
         <v>1130412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4843,13 @@
         <v>70098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4840,13 +4858,13 @@
         <v>168749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -4855,13 +4873,13 @@
         <v>238847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D9C691-F8D5-4BF6-ADA5-5BC91C7F3563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD7E58-7C75-4F3D-A1EB-9BC08C7E278E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5080,13 @@
         <v>27767</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -5077,13 +5095,13 @@
         <v>33608</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -5092,13 +5110,13 @@
         <v>61374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5131,13 @@
         <v>1897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5128,13 +5146,13 @@
         <v>11274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5143,13 +5161,13 @@
         <v>13172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5235,13 @@
         <v>104366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
@@ -5232,13 +5250,13 @@
         <v>108423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -5247,13 +5265,13 @@
         <v>212790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5286,13 @@
         <v>19283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -5283,13 +5301,13 @@
         <v>37886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>118</v>
@@ -5298,13 +5316,13 @@
         <v>57168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5390,13 @@
         <v>146288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>339</v>
@@ -5387,13 +5405,13 @@
         <v>183352</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>551</v>
@@ -5402,13 +5420,13 @@
         <v>329639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5441,13 @@
         <v>27558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -5438,13 +5456,13 @@
         <v>57477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -5453,13 +5471,13 @@
         <v>85036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5545,13 @@
         <v>131049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5542,13 +5560,13 @@
         <v>244226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5557,13 +5575,13 @@
         <v>375275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5596,13 @@
         <v>17141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5593,13 +5611,13 @@
         <v>36239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5608,13 +5626,13 @@
         <v>53380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5700,13 @@
         <v>193183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>410</v>
@@ -5697,13 +5715,13 @@
         <v>238976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>696</v>
@@ -5712,13 +5730,13 @@
         <v>432159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5751,13 @@
         <v>26368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -5748,13 +5766,13 @@
         <v>68033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -5763,13 +5781,13 @@
         <v>94401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5855,13 @@
         <v>602653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>1310</v>
@@ -5852,13 +5870,13 @@
         <v>808585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>2194</v>
@@ -5867,13 +5885,13 @@
         <v>1411238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5906,13 @@
         <v>92247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -5903,13 +5921,13 @@
         <v>210909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -5918,13 +5936,13 @@
         <v>303156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C07B12-42BF-41C2-A8FE-39B19204650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78071FB4-4970-43F5-8847-7A2409382666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9604A876-C453-43A3-9AA6-2078F54E9E3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1344AFE0-4812-4019-82E2-0DF12AE4189D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
-  <si>
-    <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,7 +77,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>80,01%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,16 +86,13 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,57%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>83,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,22 +104,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,43%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +128,55 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,7 +185,7 @@
     <t>91,96%</t>
   </si>
   <si>
-    <t>86,95%</t>
+    <t>87,65%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -200,19 +194,19 @@
     <t>85,09%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>8,04%</t>
@@ -221,25 +215,25 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>13,05%</t>
+    <t>12,35%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -248,1114 +242,1102 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2472470-6AA0-431A-B7D5-2BE5818D2097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70928365-4FFF-4265-9A5D-CFB632C31B5B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,13 +1909,13 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1942,13 +1924,13 @@
         <v>1094</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1957,13 +1939,13 @@
         <v>2016</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1972,13 +1954,13 @@
         <v>3110</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1975,13 @@
         <v>26374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -2008,13 +1990,13 @@
         <v>24325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -2023,18 +2005,18 @@
         <v>50699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2046,13 +2028,13 @@
         <v>77498</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -2061,13 +2043,13 @@
         <v>111139</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -2076,19 +2058,19 @@
         <v>188636</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -2097,13 +2079,13 @@
         <v>11117</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2112,13 +2094,13 @@
         <v>14072</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -2127,13 +2109,13 @@
         <v>25189</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2130,13 @@
         <v>88615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -2163,13 +2145,13 @@
         <v>125211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -2178,18 +2160,18 @@
         <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2201,13 +2183,13 @@
         <v>134157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -2216,13 +2198,13 @@
         <v>155442</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>280</v>
@@ -2231,19 +2213,19 @@
         <v>289598</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -2252,13 +2234,13 @@
         <v>11732</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -2267,13 +2249,13 @@
         <v>27238</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2282,13 +2264,13 @@
         <v>38970</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2285,13 @@
         <v>145889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2318,13 +2300,13 @@
         <v>182680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>316</v>
@@ -2333,18 +2315,18 @@
         <v>328568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2338,13 @@
         <v>100659</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2371,13 +2353,13 @@
         <v>119954</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
@@ -2386,19 +2368,19 @@
         <v>220613</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -2407,13 +2389,13 @@
         <v>3712</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2422,13 +2404,13 @@
         <v>15896</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2437,13 +2419,13 @@
         <v>19608</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2440,13 @@
         <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>140</v>
@@ -2473,13 +2455,13 @@
         <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>242</v>
@@ -2488,18 +2470,18 @@
         <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2511,13 +2493,13 @@
         <v>124972</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -2526,13 +2508,13 @@
         <v>176904</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -2541,19 +2523,19 @@
         <v>301876</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -2562,13 +2544,13 @@
         <v>12245</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2577,13 +2559,13 @@
         <v>31873</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -2592,13 +2574,13 @@
         <v>44119</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2595,13 @@
         <v>137217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -2628,13 +2610,13 @@
         <v>208777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>356</v>
@@ -2643,13 +2625,13 @@
         <v>345995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2648,13 @@
         <v>462565</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>578</v>
@@ -2681,13 +2663,13 @@
         <v>585747</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1058</v>
@@ -2696,19 +2678,19 @@
         <v>1048312</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>43</v>
@@ -2717,13 +2699,13 @@
         <v>39901</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -2732,13 +2714,13 @@
         <v>91095</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -2747,13 +2729,13 @@
         <v>130996</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2750,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2783,13 +2765,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2798,18 +2780,18 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E704DE5-47B7-40C5-9824-663CBFE1AE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A0821E-5F08-4B54-AFF6-9F71390B8434}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,10 +2936,10 @@
         <v>19418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2969,13 +2951,13 @@
         <v>18470</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2984,19 +2966,19 @@
         <v>37888</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -3005,13 +2987,13 @@
         <v>1780</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3020,13 +3002,13 @@
         <v>6724</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3035,13 +3017,13 @@
         <v>8504</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3038,13 @@
         <v>21198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3071,13 +3053,13 @@
         <v>25194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3086,18 +3068,18 @@
         <v>46392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3091,13 @@
         <v>107800</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -3124,13 +3106,13 @@
         <v>106775</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3139,19 +3121,19 @@
         <v>214575</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -3160,13 +3142,13 @@
         <v>10550</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3175,13 +3157,13 @@
         <v>34817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3190,13 +3172,13 @@
         <v>45367</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3193,13 @@
         <v>118350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -3226,13 +3208,13 @@
         <v>141592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>239</v>
@@ -3241,18 +3223,18 @@
         <v>259942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3264,13 +3246,13 @@
         <v>122456</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3279,13 +3261,13 @@
         <v>129206</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3294,19 +3276,19 @@
         <v>251662</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>29</v>
@@ -3315,13 +3297,13 @@
         <v>32422</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -3330,13 +3312,13 @@
         <v>62214</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -3345,13 +3327,13 @@
         <v>94636</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3348,13 @@
         <v>154878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>177</v>
@@ -3381,13 +3363,13 @@
         <v>191420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>315</v>
@@ -3396,18 +3378,18 @@
         <v>346298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3419,13 +3401,13 @@
         <v>88430</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3434,13 +3416,13 @@
         <v>100896</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -3449,19 +3431,19 @@
         <v>189326</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -3470,13 +3452,13 @@
         <v>15168</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -3485,13 +3467,13 @@
         <v>40123</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3500,13 +3482,13 @@
         <v>55291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3503,13 @@
         <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>129</v>
@@ -3536,13 +3518,13 @@
         <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>219</v>
@@ -3551,18 +3533,18 @@
         <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3574,13 +3556,13 @@
         <v>137998</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3589,13 +3571,13 @@
         <v>195178</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -3604,19 +3586,19 @@
         <v>333176</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3625,13 +3607,13 @@
         <v>23615</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3640,13 +3622,13 @@
         <v>48572</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3655,13 +3637,13 @@
         <v>72187</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3658,13 @@
         <v>161613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -3691,13 +3673,13 @@
         <v>243750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -3706,13 +3688,13 @@
         <v>405363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>476102</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>518</v>
@@ -3744,13 +3726,13 @@
         <v>550525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>950</v>
@@ -3759,19 +3741,19 @@
         <v>1026627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>72</v>
@@ -3780,13 +3762,13 @@
         <v>83535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -3795,13 +3777,13 @@
         <v>192450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -3810,13 +3792,13 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3813,13 @@
         <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>694</v>
@@ -3846,13 +3828,13 @@
         <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1198</v>
@@ -3861,18 +3843,18 @@
         <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA91C45E-60BB-446C-96AA-D39EF1FCD4F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7F9B2A-3FC2-4B3E-BB50-5070C4DE6729}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3999,13 @@
         <v>16334</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4032,13 +4014,13 @@
         <v>16301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -4047,19 +4029,19 @@
         <v>32635</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4068,13 +4050,13 @@
         <v>5354</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4083,10 +4065,10 @@
         <v>7138</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>242</v>
@@ -4119,13 +4101,13 @@
         <v>21688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4134,13 +4116,13 @@
         <v>23439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4149,18 +4131,18 @@
         <v>45127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4199,7 +4181,7 @@
         <v>213</v>
       </c>
       <c r="N7" s="7">
-        <v>217219</v>
+        <v>217218</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>252</v>
@@ -4214,7 +4196,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -4274,13 +4256,13 @@
         <v>115046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4289,33 +4271,33 @@
         <v>149951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4330,10 +4312,10 @@
         <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -4342,13 +4324,13 @@
         <v>178618</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -4357,19 +4339,19 @@
         <v>322495</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>23</v>
@@ -4378,13 +4360,13 @@
         <v>21064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -4393,13 +4375,13 @@
         <v>40545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4408,13 +4390,13 @@
         <v>61609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4411,13 @@
         <v>164941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>182</v>
@@ -4444,13 +4426,13 @@
         <v>219163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>357</v>
@@ -4459,18 +4441,18 @@
         <v>384104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4482,13 +4464,13 @@
         <v>102599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4497,13 +4479,13 @@
         <v>106064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -4512,19 +4494,19 @@
         <v>208663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -4533,13 +4515,13 @@
         <v>12436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4548,13 +4530,13 @@
         <v>36532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4563,13 +4545,13 @@
         <v>48968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4566,13 @@
         <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4599,13 +4581,13 @@
         <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -4614,18 +4596,18 @@
         <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4637,13 +4619,13 @@
         <v>157952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>160</v>
@@ -4652,13 +4634,13 @@
         <v>191448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -4667,19 +4649,19 @@
         <v>349401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>18</v>
@@ -4688,13 +4670,13 @@
         <v>16666</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4703,13 +4685,13 @@
         <v>51333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4718,13 +4700,13 @@
         <v>67999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4721,13 @@
         <v>174618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -4754,13 +4736,13 @@
         <v>242781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>388</v>
@@ -4769,13 +4751,13 @@
         <v>417400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4774,13 @@
         <v>521230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -4807,13 +4789,13 @@
         <v>609182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>1072</v>
@@ -4822,19 +4804,19 @@
         <v>1130412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>77</v>
@@ -4843,13 +4825,13 @@
         <v>70098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -4858,13 +4840,13 @@
         <v>168749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -4873,13 +4855,13 @@
         <v>238847</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4876,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -4909,13 +4891,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -4924,18 +4906,18 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD7E58-7C75-4F3D-A1EB-9BC08C7E278E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F67DBA5-E3BD-4B39-8C9F-7CA972D164E8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5062,13 @@
         <v>27767</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -5095,13 +5077,13 @@
         <v>33608</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>126</v>
@@ -5110,19 +5092,19 @@
         <v>61374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5131,13 +5113,13 @@
         <v>1897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5146,13 +5128,13 @@
         <v>11274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5161,13 +5143,13 @@
         <v>13172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5164,13 @@
         <v>29664</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -5197,13 +5179,13 @@
         <v>44882</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>158</v>
@@ -5212,18 +5194,18 @@
         <v>74546</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5235,13 +5217,13 @@
         <v>104366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
@@ -5250,13 +5232,13 @@
         <v>108423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -5265,19 +5247,19 @@
         <v>212790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -5286,13 +5268,13 @@
         <v>19283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -5301,13 +5283,13 @@
         <v>37886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>118</v>
@@ -5316,13 +5298,13 @@
         <v>57168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5319,13 @@
         <v>123649</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>332</v>
@@ -5352,13 +5334,13 @@
         <v>146309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>536</v>
@@ -5367,18 +5349,18 @@
         <v>269958</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5390,13 +5372,13 @@
         <v>146288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>339</v>
@@ -5405,13 +5387,13 @@
         <v>183352</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>551</v>
@@ -5420,19 +5402,19 @@
         <v>329639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>42</v>
@@ -5441,13 +5423,13 @@
         <v>27558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -5456,13 +5438,13 @@
         <v>57477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -5471,13 +5453,13 @@
         <v>85036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5474,13 @@
         <v>173846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>446</v>
@@ -5507,13 +5489,13 @@
         <v>240829</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>700</v>
@@ -5522,18 +5504,18 @@
         <v>414675</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5545,13 +5527,13 @@
         <v>131049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5560,13 +5542,13 @@
         <v>244226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5575,19 +5557,19 @@
         <v>375275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -5596,13 +5578,13 @@
         <v>17141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5611,13 +5593,13 @@
         <v>36239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5626,13 +5608,13 @@
         <v>53380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5629,13 @@
         <v>148190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>287</v>
@@ -5662,13 +5644,13 @@
         <v>280465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -5677,18 +5659,18 @@
         <v>428655</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5700,13 +5682,13 @@
         <v>193183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>410</v>
@@ -5715,13 +5697,13 @@
         <v>238976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>696</v>
@@ -5730,19 +5712,19 @@
         <v>432159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -5751,13 +5733,13 @@
         <v>26368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -5766,13 +5748,13 @@
         <v>68033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -5781,13 +5763,13 @@
         <v>94401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5784,13 @@
         <v>219551</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>520</v>
@@ -5817,13 +5799,13 @@
         <v>307009</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>846</v>
@@ -5832,13 +5814,13 @@
         <v>526560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5837,13 @@
         <v>602653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>1310</v>
@@ -5870,13 +5852,13 @@
         <v>808585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>2194</v>
@@ -5885,19 +5867,19 @@
         <v>1411238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>140</v>
@@ -5906,13 +5888,13 @@
         <v>92247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -5921,13 +5903,13 @@
         <v>210909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -5936,13 +5918,13 @@
         <v>303156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5939,13 @@
         <v>694900</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>1696</v>
@@ -5972,13 +5954,13 @@
         <v>1019494</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>2720</v>
@@ -5987,18 +5969,18 @@
         <v>1714394</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78071FB4-4970-43F5-8847-7A2409382666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D3C44A-1204-4AF8-815F-1897F9AC123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1344AFE0-4812-4019-82E2-0DF12AE4189D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{12AD9777-24D8-448A-B824-3DB9F97397C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,120 +68,102 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
     <t>91,96%</t>
   </si>
   <si>
@@ -209,34 +191,34 @@
     <t>91,37%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>96,44%</t>
@@ -266,36 +248,36 @@
     <t>94,91%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
     <t>91,08%</t>
   </si>
   <si>
@@ -323,31 +305,31 @@
     <t>90,55%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -377,139 +359,91 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>79,07%</t>
@@ -539,31 +473,31 @@
     <t>77,27%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>85,36%</t>
@@ -593,31 +527,31 @@
     <t>82,45%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>85,39%</t>
@@ -647,31 +581,28 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>85,07%</t>
@@ -698,139 +629,82 @@
     <t>81,03%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>87,23%</t>
@@ -854,25 +728,31 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>89,19%</t>
@@ -902,31 +782,31 @@
     <t>85,57%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>90,46%</t>
@@ -956,31 +836,31 @@
     <t>87,5%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>88,15%</t>
@@ -1010,334 +890,259 @@
     <t>84,55%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70928365-4FFF-4265-9A5D-CFB632C31B5B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39F6A8E-3007-4292-9F48-2E5B578DA561}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>25280</v>
+        <v>12211</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>22309</v>
+        <v>16087</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1894,73 +1699,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>47589</v>
+        <v>28299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>1094</v>
+        <v>102778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="I5" s="7">
-        <v>2016</v>
+        <v>133448</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>3110</v>
+        <v>236225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,153 +1774,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7">
-        <v>26374</v>
+        <v>114989</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I6" s="7">
-        <v>24325</v>
+        <v>149535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="N6" s="7">
-        <v>50699</v>
+        <v>264524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>77498</v>
+        <v>11732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>111139</v>
+        <v>27238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>188636</v>
+        <v>38970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7">
-        <v>11117</v>
+        <v>134157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>14072</v>
+        <v>155442</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="N8" s="7">
-        <v>25189</v>
+        <v>289598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,153 +1929,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7">
-        <v>88615</v>
+        <v>145889</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>125211</v>
+        <v>182680</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>328568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>134157</v>
+        <v>3712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>155442</v>
+        <v>15896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>289598</v>
+        <v>19608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>11732</v>
+        <v>100659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="I11" s="7">
-        <v>27238</v>
+        <v>119954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="N11" s="7">
-        <v>38970</v>
+        <v>220613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,153 +2084,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>145889</v>
+        <v>104371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I12" s="7">
-        <v>182680</v>
+        <v>135850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N12" s="7">
-        <v>328568</v>
+        <v>240221</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>100659</v>
+        <v>12245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>119954</v>
+        <v>31873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>220613</v>
+        <v>44119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7">
-        <v>3712</v>
+        <v>124972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>15896</v>
+        <v>176904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="N14" s="7">
-        <v>19608</v>
+        <v>301876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,153 +2239,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7">
-        <v>104371</v>
+        <v>137217</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I15" s="7">
-        <v>135850</v>
+        <v>208777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="N15" s="7">
-        <v>240221</v>
+        <v>345995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>124972</v>
+        <v>39901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>176904</v>
+        <v>91095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
-        <v>301876</v>
+        <v>130996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="D17" s="7">
-        <v>12245</v>
+        <v>462565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>578</v>
       </c>
       <c r="I17" s="7">
-        <v>31873</v>
+        <v>585747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>1058</v>
       </c>
       <c r="N17" s="7">
-        <v>44119</v>
+        <v>1048312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,217 +2394,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="D18" s="7">
-        <v>137217</v>
+        <v>502466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="I18" s="7">
-        <v>208777</v>
+        <v>676842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>356</v>
+        <v>1184</v>
       </c>
       <c r="N18" s="7">
-        <v>345995</v>
+        <v>1179308</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>480</v>
-      </c>
-      <c r="D19" s="7">
-        <v>462565</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>578</v>
-      </c>
-      <c r="I19" s="7">
-        <v>585747</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1058</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1048312</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
-        <v>39901</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91095</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>126</v>
-      </c>
-      <c r="N20" s="7">
-        <v>130996</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>523</v>
-      </c>
-      <c r="D21" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>661</v>
-      </c>
-      <c r="I21" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A0821E-5F08-4B54-AFF6-9F71390B8434}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA661356-3B91-45B6-A8FE-E817EC0DCCDA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,100 +2579,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>19418</v>
+        <v>12330</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>18470</v>
+        <v>41541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>37888</v>
+        <v>53871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7">
-        <v>1780</v>
+        <v>127217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
-        <v>6724</v>
+        <v>125246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="N5" s="7">
-        <v>8504</v>
+        <v>252463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,153 +2681,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>21198</v>
+        <v>139547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>25194</v>
+        <v>166787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>46392</v>
+        <v>306334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>107800</v>
+        <v>32422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>106775</v>
+        <v>62214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>214575</v>
+        <v>94636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>10550</v>
+        <v>122456</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I8" s="7">
-        <v>34817</v>
+        <v>129206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="N8" s="7">
-        <v>45367</v>
+        <v>251662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,153 +2836,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D9" s="7">
-        <v>118350</v>
+        <v>154878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>141592</v>
+        <v>191420</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="N9" s="7">
-        <v>259942</v>
+        <v>346298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>122456</v>
+        <v>15168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>129206</v>
+        <v>40123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>251662</v>
+        <v>55291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7">
-        <v>32422</v>
+        <v>88430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>62214</v>
+        <v>100896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="N11" s="7">
-        <v>94636</v>
+        <v>189326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,153 +2991,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D12" s="7">
-        <v>154878</v>
+        <v>103598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I12" s="7">
-        <v>191420</v>
+        <v>141019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N12" s="7">
-        <v>346298</v>
+        <v>244617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>88430</v>
+        <v>23615</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>100896</v>
+        <v>48572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>189326</v>
+        <v>72187</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>15168</v>
+        <v>137998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>185</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
       <c r="I14" s="7">
-        <v>40123</v>
+        <v>195178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="N14" s="7">
-        <v>55291</v>
+        <v>333176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,153 +3146,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>103598</v>
+        <v>161613</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>141019</v>
+        <v>243750</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="N15" s="7">
-        <v>244617</v>
+        <v>405363</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>137998</v>
+        <v>83535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
+        <v>176</v>
+      </c>
+      <c r="I16" s="7">
+        <v>192450</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="7">
+        <v>248</v>
+      </c>
+      <c r="N16" s="7">
+        <v>275985</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="7">
-        <v>195178</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" s="7">
-        <v>312</v>
-      </c>
-      <c r="N16" s="7">
-        <v>333176</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="D17" s="7">
-        <v>23615</v>
+        <v>476102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>518</v>
       </c>
       <c r="I17" s="7">
-        <v>48572</v>
+        <v>550525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>66</v>
+        <v>950</v>
       </c>
       <c r="N17" s="7">
-        <v>72187</v>
+        <v>1026627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,217 +3301,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>161613</v>
+        <v>559637</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="I18" s="7">
-        <v>243750</v>
+        <v>742975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>378</v>
+        <v>1198</v>
       </c>
       <c r="N18" s="7">
-        <v>405363</v>
+        <v>1302612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>432</v>
-      </c>
-      <c r="D19" s="7">
-        <v>476102</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>518</v>
-      </c>
-      <c r="I19" s="7">
-        <v>550525</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="7">
-        <v>950</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1026627</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>72</v>
-      </c>
-      <c r="D20" s="7">
-        <v>83535</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>192450</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>248</v>
-      </c>
-      <c r="N20" s="7">
-        <v>275985</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>504</v>
-      </c>
-      <c r="D21" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>694</v>
-      </c>
-      <c r="I21" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7F9B2A-3FC2-4B3E-BB50-5070C4DE6729}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5C3EFC-27CE-4DA7-9814-6381BE397BAC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,100 +3486,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>16334</v>
+        <v>19932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>16301</v>
+        <v>40339</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>32635</v>
+        <v>60271</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>5354</v>
+        <v>116802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>7138</v>
+        <v>133052</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="N5" s="7">
-        <v>12492</v>
+        <v>249854</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,153 +3588,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>21688</v>
+        <v>136734</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>23439</v>
+        <v>173391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="N6" s="7">
-        <v>45127</v>
+        <v>310125</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>100469</v>
+        <v>21064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>116750</v>
+        <v>40545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>217218</v>
+        <v>61609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>14577</v>
+        <v>143877</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>33201</v>
+        <v>178618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="N8" s="7">
-        <v>47779</v>
+        <v>322495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,153 +3743,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>115046</v>
+        <v>164941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I9" s="7">
-        <v>149951</v>
+        <v>219163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>384104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>143877</v>
+        <v>12436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>178618</v>
+        <v>36532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>322495</v>
+        <v>48968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>21064</v>
+        <v>102599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>40545</v>
+        <v>106064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="N11" s="7">
-        <v>61609</v>
+        <v>208663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,153 +3898,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7">
-        <v>164941</v>
+        <v>115035</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>219163</v>
+        <v>142596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7">
-        <v>384104</v>
+        <v>257631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>102599</v>
+        <v>16666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>106064</v>
+        <v>51333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>208663</v>
+        <v>67999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>12436</v>
+        <v>157952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>36532</v>
+        <v>191448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="N14" s="7">
-        <v>48968</v>
+        <v>349401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,153 +4053,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>115035</v>
+        <v>174618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
-        <v>142596</v>
+        <v>242781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="N15" s="7">
-        <v>257631</v>
+        <v>417400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>157952</v>
+        <v>70098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7">
-        <v>191448</v>
+        <v>168749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="N16" s="7">
-        <v>349401</v>
+        <v>238847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="D17" s="7">
-        <v>16666</v>
+        <v>521230</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>522</v>
       </c>
       <c r="I17" s="7">
-        <v>51333</v>
+        <v>609182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>56</v>
+        <v>1072</v>
       </c>
       <c r="N17" s="7">
-        <v>67999</v>
+        <v>1130412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,217 +4208,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="D18" s="7">
-        <v>174618</v>
+        <v>591328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>198</v>
+        <v>655</v>
       </c>
       <c r="I18" s="7">
-        <v>242781</v>
+        <v>777931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>388</v>
+        <v>1282</v>
       </c>
       <c r="N18" s="7">
-        <v>417400</v>
+        <v>1369259</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>550</v>
-      </c>
-      <c r="D19" s="7">
-        <v>521230</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>522</v>
-      </c>
-      <c r="I19" s="7">
-        <v>609182</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1072</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1130412</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>77</v>
-      </c>
-      <c r="D20" s="7">
-        <v>70098</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>133</v>
-      </c>
-      <c r="I20" s="7">
-        <v>168749</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>210</v>
-      </c>
-      <c r="N20" s="7">
-        <v>238847</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>627</v>
-      </c>
-      <c r="D21" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>655</v>
-      </c>
-      <c r="I21" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F67DBA5-E3BD-4B39-8C9F-7CA972D164E8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE9E0A-5304-4EBD-A014-96E110913DE6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,100 +4393,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>27767</v>
+        <v>20016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7">
-        <v>33608</v>
+        <v>45313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="N4" s="7">
-        <v>61374</v>
+        <v>65329</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="D5" s="7">
-        <v>1897</v>
+        <v>126813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="I5" s="7">
-        <v>11274</v>
+        <v>132533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="N5" s="7">
-        <v>13172</v>
+        <v>259346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,153 +4495,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D6" s="7">
-        <v>29664</v>
+        <v>146829</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="I6" s="7">
-        <v>44882</v>
+        <v>177846</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>158</v>
+        <v>694</v>
       </c>
       <c r="N6" s="7">
-        <v>74546</v>
+        <v>324675</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>104366</v>
+        <v>25072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>108423</v>
+        <v>51733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>418</v>
+        <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>212790</v>
+        <v>76805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="D8" s="7">
-        <v>19283</v>
+        <v>135042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="I8" s="7">
-        <v>37886</v>
+        <v>165214</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="N8" s="7">
-        <v>57168</v>
+        <v>300256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,153 +4650,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7">
-        <v>123649</v>
+        <v>160114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="I9" s="7">
-        <v>146309</v>
+        <v>216947</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>536</v>
+        <v>700</v>
       </c>
       <c r="N9" s="7">
-        <v>269958</v>
+        <v>377061</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>146288</v>
+        <v>15662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>183352</v>
+        <v>32218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>329639</v>
+        <v>47880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>27558</v>
+        <v>121290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="I11" s="7">
-        <v>57477</v>
+        <v>327445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
-        <v>149</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>85036</v>
+        <v>448735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,153 +4805,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D12" s="7">
-        <v>173846</v>
+        <v>136952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>446</v>
+        <v>287</v>
       </c>
       <c r="I12" s="7">
-        <v>240829</v>
+        <v>359663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="N12" s="7">
-        <v>414675</v>
+        <v>496615</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>131049</v>
+        <v>24361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
-        <v>244226</v>
+        <v>58785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>403</v>
+        <v>150</v>
       </c>
       <c r="N13" s="7">
-        <v>375275</v>
+        <v>83146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>17141</v>
+        <v>180063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="I14" s="7">
-        <v>36239</v>
+        <v>214568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>696</v>
       </c>
       <c r="N14" s="7">
-        <v>53380</v>
+        <v>394632</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,153 +4960,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="D15" s="7">
-        <v>148190</v>
+        <v>204424</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>287</v>
+        <v>520</v>
       </c>
       <c r="I15" s="7">
-        <v>280465</v>
+        <v>273353</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>480</v>
+        <v>846</v>
       </c>
       <c r="N15" s="7">
-        <v>428655</v>
+        <v>477778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7">
-        <v>193183</v>
+        <v>85110</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="I16" s="7">
-        <v>238976</v>
+        <v>188049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>696</v>
+        <v>526</v>
       </c>
       <c r="N16" s="7">
-        <v>432159</v>
+        <v>273160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>884</v>
       </c>
       <c r="D17" s="7">
-        <v>26368</v>
+        <v>563210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>110</v>
+        <v>1310</v>
       </c>
       <c r="I17" s="7">
-        <v>68033</v>
+        <v>839761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>150</v>
+        <v>2194</v>
       </c>
       <c r="N17" s="7">
-        <v>94401</v>
+        <v>1402970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,217 +5115,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>326</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="7">
-        <v>219551</v>
+        <v>648320</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>520</v>
+        <v>1696</v>
       </c>
       <c r="I18" s="7">
-        <v>307009</v>
+        <v>1027810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>846</v>
+        <v>2720</v>
       </c>
       <c r="N18" s="7">
-        <v>526560</v>
+        <v>1676130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>884</v>
-      </c>
-      <c r="D19" s="7">
-        <v>602653</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1310</v>
-      </c>
-      <c r="I19" s="7">
-        <v>808585</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2194</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1411238</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>140</v>
-      </c>
-      <c r="D20" s="7">
-        <v>92247</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H20" s="7">
-        <v>386</v>
-      </c>
-      <c r="I20" s="7">
-        <v>210909</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>526</v>
-      </c>
-      <c r="N20" s="7">
-        <v>303156</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1024</v>
-      </c>
-      <c r="D21" s="7">
-        <v>694900</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1696</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1019494</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2720</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1714394</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
